--- a/www.data.gov/datagov/wordpress/non-federal-agency-participation.xlsx
+++ b/www.data.gov/datagov/wordpress/non-federal-agency-participation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
   <si>
     <t>Agency Name</t>
   </si>
@@ -38,7 +38,7 @@
     <t>County Government</t>
   </si>
   <si>
-    <t>11/07/2017</t>
+    <t>08/03/2018</t>
   </si>
   <si>
     <t>Arizona Geological Survey</t>
@@ -53,7 +53,7 @@
     <t>Arlington County, VA</t>
   </si>
   <si>
-    <t>11/12/2017</t>
+    <t>04/12/2018</t>
   </si>
   <si>
     <t>Arlington County</t>
@@ -68,12 +68,12 @@
     <t>05/17/2013</t>
   </si>
   <si>
-    <t>California Department of Resources</t>
-  </si>
-  <si>
     <t>California Environmental Health Tracking Program</t>
   </si>
   <si>
+    <t>California Natural Resource Agency</t>
+  </si>
+  <si>
     <t>Center for International Earth Science Information Network, Columbia University</t>
   </si>
   <si>
@@ -86,40 +86,46 @@
     <t>City Government</t>
   </si>
   <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
     <t>Board of Elections</t>
   </si>
   <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Budget Department</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Budget Department, Office of Performance and Innovation</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Bureau of Justice Statistics Office</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Bureau of Labor Statistics</t>
+  </si>
+  <si>
+    <t>City Department of Transportation</t>
+  </si>
+  <si>
     <t>09/23/2017</t>
   </si>
   <si>
-    <t>Budget Department</t>
-  </si>
-  <si>
-    <t>10/19/2017</t>
-  </si>
-  <si>
-    <t>Budget Department, Office of Performance and Innovation</t>
-  </si>
-  <si>
-    <t>09/13/2017</t>
-  </si>
-  <si>
-    <t>Bureau of Justice Statistics Office</t>
-  </si>
-  <si>
-    <t>07/17/2017</t>
-  </si>
-  <si>
-    <t>Bureau of Labor Statistics</t>
-  </si>
-  <si>
-    <t>City Department of Transportation</t>
-  </si>
-  <si>
     <t>City and County of Durham, NC</t>
   </si>
   <si>
-    <t>10/31/2017</t>
+    <t>02/28/2018</t>
   </si>
   <si>
     <t>City of Durham</t>
@@ -131,477 +137,465 @@
     <t>Development Services Center</t>
   </si>
   <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t>Duke Parking and Transportation</t>
+  </si>
+  <si>
+    <t>Durham County</t>
+  </si>
+  <si>
+    <t>Durham County Library</t>
+  </si>
+  <si>
+    <t>Durham GIS</t>
+  </si>
+  <si>
+    <t>Environmental Protection Agency (EPA)</t>
+  </si>
+  <si>
+    <t>Federal Election Commission (FEC)</t>
+  </si>
+  <si>
+    <t>GoTriangle</t>
+  </si>
+  <si>
+    <t>HUD Exchange</t>
+  </si>
+  <si>
+    <t>NC Department of Health and Human Services</t>
+  </si>
+  <si>
+    <t>NC Department of Justice</t>
+  </si>
+  <si>
+    <t>NC Department of Public Instruction</t>
+  </si>
+  <si>
+    <t>NC Department of Transportation</t>
+  </si>
+  <si>
+    <t>NC State Board of Education, Department of Public Instruction</t>
+  </si>
+  <si>
+    <t>NCCPR</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Police Department</t>
+  </si>
+  <si>
+    <t>Tax Administration</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>University of South Carolina, Hazards Research Lab, Department of Geography</t>
+  </si>
+  <si>
+    <t>City of Austin</t>
+  </si>
+  <si>
+    <t>Department/Agency level/No publisher</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>data.austintexas.gov</t>
+  </si>
+  <si>
+    <t>City of Baltimore</t>
+  </si>
+  <si>
+    <t>data.baltimorecity.gov</t>
+  </si>
+  <si>
+    <t>City of Baton Rouge</t>
+  </si>
+  <si>
+    <t>data.brla.gov</t>
+  </si>
+  <si>
+    <t>City of Bloomington</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>City of Boise</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>City of Boise, Idaho</t>
+  </si>
+  <si>
+    <t>City of Charlotte</t>
+  </si>
+  <si>
+    <t>City of Chesapeake</t>
+  </si>
+  <si>
+    <t>City of Chesapeake, VA</t>
+  </si>
+  <si>
+    <t>City of Chicago</t>
+  </si>
+  <si>
+    <t>data.cityofchicago.org</t>
+  </si>
+  <si>
+    <t>City of Hartford</t>
+  </si>
+  <si>
+    <t>data.hartford.gov</t>
+  </si>
+  <si>
+    <t>City of Honolulu</t>
+  </si>
+  <si>
+    <t>data.honolulu.gov</t>
+  </si>
+  <si>
+    <t>City of Jackson, Mississippi</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>data.jacksonms.gov</t>
+  </si>
+  <si>
+    <t>City of Los Angeles</t>
+  </si>
+  <si>
+    <t>data.lacity.org</t>
+  </si>
+  <si>
+    <t>City of New Orleans</t>
+  </si>
+  <si>
+    <t>appsteam@socrata.com</t>
+  </si>
+  <si>
+    <t>data.nola.gov</t>
+  </si>
+  <si>
+    <t>City of New York</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>data.cityofnewyork.us</t>
+  </si>
+  <si>
+    <t>City of Philadelphia</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>City Of Philadelphia</t>
+  </si>
+  <si>
+    <t>City of Providence</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>data.providenceri.gov</t>
+  </si>
+  <si>
+    <t>City of San Francisco</t>
+  </si>
+  <si>
+    <t>data.sfgov.org</t>
+  </si>
+  <si>
+    <t>City of Santa Rosa</t>
+  </si>
+  <si>
+    <t>data.srcity.org</t>
+  </si>
+  <si>
+    <t>City of Seattle</t>
+  </si>
+  <si>
+    <t>11/24/2016</t>
+  </si>
+  <si>
+    <t>data.seattle.gov</t>
+  </si>
+  <si>
+    <t>City of Sioux Falls</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>City of Sioux Falls GIS</t>
+  </si>
+  <si>
+    <t>City of Somerville</t>
+  </si>
+  <si>
+    <t>data.somervillema.gov</t>
+  </si>
+  <si>
+    <t>City of Tempe</t>
+  </si>
+  <si>
+    <t>Cook County of Illinois</t>
+  </si>
+  <si>
+    <t>datacatalog.cookcountyil.gov</t>
+  </si>
+  <si>
+    <t>Cornell University</t>
+  </si>
+  <si>
+    <t>Earth Data Analysis Center, University of New Mexico</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Fairfax County, Virginia</t>
+  </si>
+  <si>
+    <t>Fairfax County GIS</t>
+  </si>
+  <si>
+    <t>Florida Department of Environmental Protection</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Engineering, Hydrology &amp; Geology Program</t>
+  </si>
+  <si>
+    <t>Great Lakes Commission</t>
+  </si>
+  <si>
+    <t>Non-Profit</t>
+  </si>
+  <si>
+    <t>Idaho State University</t>
+  </si>
+  <si>
+    <t>International Boundary Commission</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>Iowa State University GIS Support and Research Facility</t>
+  </si>
+  <si>
+    <t>12/19/2015</t>
+  </si>
+  <si>
+    <t>Kansas Data Access and Support Center</t>
+  </si>
+  <si>
+    <t>King County, Washington</t>
+  </si>
+  <si>
+    <t>data.kingcounty.gov</t>
+  </si>
+  <si>
+    <t>Legal Services Corporation</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Office of Data Governance and Analysis</t>
+  </si>
+  <si>
+    <t>Loudoun County, Virginia</t>
+  </si>
+  <si>
+    <t>Loudoun GIS</t>
+  </si>
+  <si>
+    <t>Louisiana Geographic Information Center</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Louisville Metro Government</t>
+  </si>
+  <si>
+    <t>Air Pollution Control District</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Animal Services</t>
+  </si>
+  <si>
+    <t>Bike Louisville</t>
+  </si>
+  <si>
+    <t>02/14/2018</t>
+  </si>
+  <si>
+    <t>Codes &amp; Regulations</t>
+  </si>
+  <si>
+    <t>Codes &amp; Regulations, Develop Louisville</t>
+  </si>
+  <si>
+    <t>Community Services</t>
+  </si>
+  <si>
+    <t>Construction Review</t>
+  </si>
+  <si>
+    <t>Construction Review, Develop Louisville</t>
+  </si>
+  <si>
+    <t>Corrections</t>
+  </si>
+  <si>
+    <t>Develop Louisville</t>
+  </si>
+  <si>
+    <t>Develop Louisville, Planning and Design</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>Economic Development</t>
+  </si>
+  <si>
+    <t>Emergency Management</t>
+  </si>
+  <si>
+    <t>Health &amp; Wellness</t>
+  </si>
+  <si>
+    <t>Housing and Community Development</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Information Technology, Performance Improvement and Innovation, Public Works &amp; Assets</t>
+  </si>
+  <si>
+    <t>Jefferson County Clerk Election Center</t>
+  </si>
+  <si>
+    <t>Kentucky State Police</t>
+  </si>
+  <si>
+    <t>LOJIC</t>
+  </si>
+  <si>
+    <t>LOJIC, Louisville Fire</t>
+  </si>
+  <si>
+    <t>LOJIC, MetroSafe</t>
+  </si>
+  <si>
+    <t>Louisville Downtown Partnership</t>
+  </si>
+  <si>
+    <t>Louisville Fire</t>
+  </si>
+  <si>
+    <t>Management &amp;amp; Budget</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Mayor Fischer</t>
+  </si>
+  <si>
+    <t>Mayor Fischer, Sustainability</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Metro Council</t>
+  </si>
+  <si>
+    <t>Metro Parks</t>
+  </si>
+  <si>
+    <t>Metro Police</t>
+  </si>
+  <si>
+    <t>MetroCall</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>OpenStreetMap</t>
+  </si>
+  <si>
+    <t>Parking Authority (PARC)</t>
+  </si>
+  <si>
+    <t>Performance Improvement</t>
+  </si>
+  <si>
+    <t>Performance Improvement and Innovation, Information Technology</t>
+  </si>
+  <si>
+    <t>Performance Improvement and Innovation, Louisville Downtown Partnership</t>
+  </si>
+  <si>
+    <t>Planning and Design</t>
+  </si>
+  <si>
+    <t>Public Works &amp; Assets</t>
+  </si>
+  <si>
+    <t>Public Works &amp;amp; Assets</t>
+  </si>
+  <si>
+    <t>Vacant and Public Property Administration</t>
+  </si>
+  <si>
+    <t>data.louisvilleky.gov</t>
+  </si>
+  <si>
     <t>//</t>
   </si>
   <si>
-    <t>Duke Parking and Transportation</t>
-  </si>
-  <si>
-    <t>Durham County</t>
-  </si>
-  <si>
-    <t>Durham County Library</t>
-  </si>
-  <si>
-    <t>Durham GIS</t>
-  </si>
-  <si>
-    <t>Environmental Protection Agency (EPA)</t>
-  </si>
-  <si>
-    <t>Federal Election Commission (FEC)</t>
-  </si>
-  <si>
-    <t>GoTriangle</t>
-  </si>
-  <si>
-    <t>HUD Exchange</t>
-  </si>
-  <si>
-    <t>NC Department of Health and Human Services</t>
-  </si>
-  <si>
-    <t>NC Department of Justice</t>
-  </si>
-  <si>
-    <t>NC Department of Public Instruction</t>
-  </si>
-  <si>
-    <t>NC Department of Transportation</t>
-  </si>
-  <si>
-    <t>NC State Board of Education, Department of Public Instruction</t>
-  </si>
-  <si>
-    <t>NCCPR</t>
-  </si>
-  <si>
-    <t>08/21/2017</t>
-  </si>
-  <si>
-    <t>Planning</t>
-  </si>
-  <si>
-    <t>10/03/2017</t>
-  </si>
-  <si>
-    <t>Police Department</t>
-  </si>
-  <si>
-    <t>Tax Administration</t>
-  </si>
-  <si>
-    <t>U.S. Census Bureau</t>
-  </si>
-  <si>
-    <t>University of South Carolina, Hazards Research Lab, Department of Geography</t>
-  </si>
-  <si>
-    <t>City of Austin</t>
-  </si>
-  <si>
-    <t>Department/Agency level/No publisher</t>
-  </si>
-  <si>
-    <t>05/24/2016</t>
-  </si>
-  <si>
-    <t>data.austintexas.gov</t>
-  </si>
-  <si>
-    <t>City of Baltimore</t>
-  </si>
-  <si>
-    <t>data.baltimorecity.gov</t>
-  </si>
-  <si>
-    <t>City of Baton Rouge</t>
-  </si>
-  <si>
-    <t>data.brla.gov</t>
-  </si>
-  <si>
-    <t>City of Bloomington</t>
-  </si>
-  <si>
-    <t>11/11/2017</t>
-  </si>
-  <si>
-    <t>City of Boise</t>
-  </si>
-  <si>
-    <t>08/08/2017</t>
-  </si>
-  <si>
-    <t>City of Boise, Idaho</t>
-  </si>
-  <si>
-    <t>City of Charlotte</t>
-  </si>
-  <si>
-    <t>City of Chesapeake</t>
-  </si>
-  <si>
-    <t>City of Chesapeake, VA</t>
-  </si>
-  <si>
-    <t>City of Chicago</t>
-  </si>
-  <si>
-    <t>data.cityofchicago.org</t>
-  </si>
-  <si>
-    <t>City of Hartford</t>
-  </si>
-  <si>
-    <t>data.hartford.gov</t>
-  </si>
-  <si>
-    <t>City of Honolulu</t>
-  </si>
-  <si>
-    <t>data.honolulu.gov</t>
-  </si>
-  <si>
-    <t>City of Jackson, Mississippi</t>
-  </si>
-  <si>
-    <t>04/07/2017</t>
-  </si>
-  <si>
-    <t>02/10/2017</t>
-  </si>
-  <si>
-    <t>data.jacksonms.gov</t>
-  </si>
-  <si>
-    <t>City of Los Angeles</t>
-  </si>
-  <si>
-    <t>data.lacity.org</t>
-  </si>
-  <si>
-    <t>City of New Orleans</t>
-  </si>
-  <si>
-    <t>The Data Center</t>
-  </si>
-  <si>
-    <t>03/10/2016</t>
-  </si>
-  <si>
-    <t>appsteam@socrata.com</t>
-  </si>
-  <si>
-    <t>data.nola.gov</t>
-  </si>
-  <si>
-    <t>City of New York</t>
-  </si>
-  <si>
-    <t>06/09/2016</t>
-  </si>
-  <si>
-    <t>data.cityofnewyork.us</t>
-  </si>
-  <si>
-    <t>City of Philadelphia</t>
-  </si>
-  <si>
-    <t>04/09/2015</t>
-  </si>
-  <si>
-    <t>City Of Philadelphia</t>
-  </si>
-  <si>
-    <t>City of Providence</t>
-  </si>
-  <si>
-    <t>07/13/2017</t>
-  </si>
-  <si>
-    <t>data.providenceri.gov</t>
-  </si>
-  <si>
-    <t>City of San Francisco</t>
-  </si>
-  <si>
-    <t>data.sfgov.org</t>
-  </si>
-  <si>
-    <t>City of Santa Rosa</t>
-  </si>
-  <si>
-    <t>data.srcity.org</t>
-  </si>
-  <si>
-    <t>City of Seattle</t>
-  </si>
-  <si>
-    <t>City of Seattle GIS Program</t>
-  </si>
-  <si>
-    <t>09/12/2017</t>
-  </si>
-  <si>
-    <t>data.seattle.gov</t>
-  </si>
-  <si>
-    <t>City of Sioux Falls</t>
-  </si>
-  <si>
-    <t>City of Sioux Falls GIS</t>
-  </si>
-  <si>
-    <t>City of Somerville</t>
-  </si>
-  <si>
-    <t>data.somervillema.gov</t>
-  </si>
-  <si>
-    <t>City of Tempe</t>
-  </si>
-  <si>
-    <t>Cook County of Illinois</t>
-  </si>
-  <si>
-    <t>datacatalog.cookcountyil.gov</t>
-  </si>
-  <si>
-    <t>Cornell University</t>
-  </si>
-  <si>
-    <t>Earth Data Analysis Center, University of New Mexico</t>
-  </si>
-  <si>
-    <t>09/21/2017</t>
-  </si>
-  <si>
-    <t>Fairfax County, Virginia</t>
-  </si>
-  <si>
-    <t>Fairfax County GIS</t>
-  </si>
-  <si>
-    <t>Florida Department of Environmental Protection</t>
-  </si>
-  <si>
-    <t>08/25/2016</t>
-  </si>
-  <si>
-    <t>Engineering, Hydrology &amp; Geology Program</t>
-  </si>
-  <si>
-    <t>Great Lakes Commission</t>
-  </si>
-  <si>
-    <t>Non-Profit</t>
-  </si>
-  <si>
-    <t>Idaho State University</t>
-  </si>
-  <si>
-    <t>International Boundary Commission</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>04/22/2016</t>
-  </si>
-  <si>
-    <t>Iowa State University GIS Support and Research Facility</t>
-  </si>
-  <si>
-    <t>12/19/2015</t>
-  </si>
-  <si>
-    <t>Kansas Data Access and Support Center</t>
-  </si>
-  <si>
-    <t>King County, Washington</t>
-  </si>
-  <si>
-    <t>data.kingcounty.gov</t>
-  </si>
-  <si>
-    <t>Legal Services Corporation</t>
-  </si>
-  <si>
-    <t>Office of Data Governance and Analysis</t>
-  </si>
-  <si>
-    <t>Loudoun County, Virginia</t>
-  </si>
-  <si>
-    <t>11/05/2017</t>
-  </si>
-  <si>
-    <t>Loudoun GIS</t>
-  </si>
-  <si>
-    <t>Louisiana Geographic Information Center</t>
-  </si>
-  <si>
-    <t>08/02/2016</t>
-  </si>
-  <si>
-    <t>Louisville Metro Government</t>
-  </si>
-  <si>
-    <t>Air Pollution Control District</t>
-  </si>
-  <si>
-    <t>08/19/2017</t>
-  </si>
-  <si>
-    <t>Animal Services</t>
-  </si>
-  <si>
-    <t>Bike Louisville</t>
-  </si>
-  <si>
-    <t>07/30/2017</t>
-  </si>
-  <si>
-    <t>Codes &amp;amp; Regulations</t>
-  </si>
-  <si>
-    <t>Community Services</t>
-  </si>
-  <si>
-    <t>03/16/2017</t>
-  </si>
-  <si>
-    <t>Construction Review, Develop Louisville</t>
-  </si>
-  <si>
-    <t>Corrections</t>
-  </si>
-  <si>
-    <t>Develop Louisville</t>
-  </si>
-  <si>
-    <t>Develop Louisville, Construction Review</t>
-  </si>
-  <si>
-    <t>Develop Louisville, MetroSafe</t>
-  </si>
-  <si>
-    <t>EMS</t>
-  </si>
-  <si>
-    <t>Economic Development</t>
-  </si>
-  <si>
-    <t>Emergency Management</t>
-  </si>
-  <si>
-    <t>Health &amp;amp; Wellness</t>
-  </si>
-  <si>
-    <t>Housing and Community Development</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
-  </si>
-  <si>
-    <t>Human Resources, Management &amp;amp; Budget</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>09/02/2017</t>
-  </si>
-  <si>
-    <t>Jefferson County Clerk Election Center</t>
-  </si>
-  <si>
-    <t>04/27/2017</t>
-  </si>
-  <si>
-    <t>LOJIC</t>
-  </si>
-  <si>
-    <t>08/25/2017</t>
-  </si>
-  <si>
-    <t>Louisville Fire</t>
-  </si>
-  <si>
-    <t>04/20/2017</t>
-  </si>
-  <si>
-    <t>Louisville Fire, LOJIC</t>
-  </si>
-  <si>
-    <t>Management &amp;amp; Budget</t>
-  </si>
-  <si>
-    <t>Mayor Fischer</t>
-  </si>
-  <si>
-    <t>04/06/2017</t>
-  </si>
-  <si>
-    <t>Mayor Fischer, Sustainability</t>
-  </si>
-  <si>
-    <t>Metro Council</t>
-  </si>
-  <si>
-    <t>Metro Parks</t>
-  </si>
-  <si>
-    <t>Metro Police</t>
-  </si>
-  <si>
-    <t>MetroCall</t>
-  </si>
-  <si>
-    <t>08/26/2016</t>
-  </si>
-  <si>
-    <t>MetroSafe</t>
-  </si>
-  <si>
-    <t>MetroSafe, Louisville Fire</t>
-  </si>
-  <si>
-    <t>Parking Authority (PARC)</t>
-  </si>
-  <si>
-    <t>Performance Improvement</t>
-  </si>
-  <si>
-    <t>06/23/2017</t>
-  </si>
-  <si>
-    <t>Performance Improvement and Innovation, Information Technology</t>
-  </si>
-  <si>
-    <t>Performance Improvement and Innovation, Louisville Downtown Partnership</t>
-  </si>
-  <si>
-    <t>Planning and Design</t>
-  </si>
-  <si>
-    <t>Public Works &amp;amp; Assets</t>
-  </si>
-  <si>
-    <t>Public Works &amp;amp; Assets, Bike Louisville</t>
-  </si>
-  <si>
-    <t>Public Works &amp;amp; Assets, Information Technology, Performance Improvement and Innovation</t>
-  </si>
-  <si>
-    <t>data.louisvilleky.gov</t>
-  </si>
-  <si>
-    <t>03/23/2017</t>
-  </si>
-  <si>
     <t>Minnesota Department of Natural Resources</t>
   </si>
   <si>
@@ -623,12 +617,18 @@
     <t>Education</t>
   </si>
   <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
     <t>NSGIC Local Govt | GIS Inventory</t>
   </si>
   <si>
     <t>Local Government</t>
   </si>
   <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
     <t>NSGIC Non-Profit | GIS Inventory</t>
   </si>
   <si>
@@ -656,9 +656,6 @@
     <t>OpenTopography</t>
   </si>
   <si>
-    <t>08/28/2017</t>
-  </si>
-  <si>
     <t>Pacific States Marine Fisheries Commission</t>
   </si>
   <si>
@@ -686,9 +683,6 @@
     <t>State of Hawaii</t>
   </si>
   <si>
-    <t>11/09/2017</t>
-  </si>
-  <si>
     <t>data.hawaii.gov</t>
   </si>
   <si>
@@ -713,7 +707,7 @@
     <t>State of Minnesota</t>
   </si>
   <si>
-    <t>10/27/2017</t>
+    <t>06/09/2018</t>
   </si>
   <si>
     <t>State of Missouri</t>
@@ -737,10 +731,13 @@
     <t>Attorney General</t>
   </si>
   <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
     <t>Department of Agriculture</t>
   </si>
   <si>
-    <t>04/14/2017</t>
+    <t>04/11/2018</t>
   </si>
   <si>
     <t>Department of Emergency Services</t>
@@ -752,24 +749,18 @@
     <t>Department of Health</t>
   </si>
   <si>
+    <t>Department of Mineral Resources</t>
+  </si>
+  <si>
     <t>Department of Public Instruction</t>
   </si>
   <si>
-    <t>09/05/2017</t>
-  </si>
-  <si>
     <t>Department of Transportation</t>
   </si>
   <si>
-    <t>10/18/2017</t>
-  </si>
-  <si>
     <t>Department of Trust Lands</t>
   </si>
   <si>
-    <t>08/12/2017</t>
-  </si>
-  <si>
     <t>Game and Fish Department</t>
   </si>
   <si>
@@ -857,13 +848,7 @@
     <t>State of Washington</t>
   </si>
   <si>
-    <t>Association of Washington Cities</t>
-  </si>
-  <si>
-    <t>WA State Department of Social and Health Services</t>
-  </si>
-  <si>
-    <t>Washington State Geospatial Portal</t>
+    <t>05/13/2018</t>
   </si>
   <si>
     <t>data.wa.gov</t>
@@ -896,6 +881,21 @@
     <t>WakeGov Open Data</t>
   </si>
   <si>
+    <t>Town of Chapel Hill, North Carolina</t>
+  </si>
+  <si>
+    <t>NCDOT, Division of Bicycle and Pedestrian Transportation</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Town of Chapel Hill</t>
+  </si>
+  <si>
+    <t>US Census</t>
+  </si>
+  <si>
     <t>United Nations Cartographic Section</t>
   </si>
   <si>
@@ -912,6 +912,9 @@
   </si>
   <si>
     <t>University of Idaho</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
   </si>
   <si>
     <t>University of New Hampshire</t>
@@ -1280,7 +1283,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1314,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1331,7 +1334,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1361,7 +1364,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1378,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -1408,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>583</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1423,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>583</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1453,10 +1456,10 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1464,16 +1467,16 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1481,7 +1484,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1490,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1498,7 +1501,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1507,7 +1510,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1515,7 +1518,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1524,7 +1527,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1532,7 +1535,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -1541,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1549,7 +1552,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
@@ -1558,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1566,16 +1569,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1583,7 +1586,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1592,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1600,7 +1603,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -1609,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1617,16 +1620,16 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1634,7 +1637,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
@@ -1643,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1651,7 +1654,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -1660,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1668,7 +1671,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
@@ -1677,7 +1680,7 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1685,7 +1688,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
@@ -1694,7 +1697,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1702,7 +1705,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
@@ -1711,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1719,7 +1722,7 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
@@ -1728,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1736,7 +1739,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
@@ -1745,7 +1748,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1753,7 +1756,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
@@ -1762,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1770,7 +1773,7 @@
         <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
@@ -1779,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1787,7 +1790,7 @@
         <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -1796,7 +1799,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1804,7 +1807,7 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
@@ -1813,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1821,7 +1824,7 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
@@ -1830,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1838,7 +1841,7 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
@@ -1847,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1855,7 +1858,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
         <v>22</v>
@@ -1864,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1872,7 +1875,7 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>22</v>
@@ -1881,7 +1884,7 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1889,7 +1892,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
@@ -1898,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1906,7 +1909,7 @@
         <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -1915,7 +1918,7 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1923,7 +1926,7 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
@@ -1932,7 +1935,7 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1940,7 +1943,7 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
@@ -1949,19 +1952,19 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
         <v>22</v>
       </c>
       <c r="D41">
-        <v>1171</v>
+        <v>995</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -1969,10 +1972,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
         <v>22</v>
@@ -1981,21 +1984,21 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
         <v>22</v>
       </c>
       <c r="D43">
-        <v>1170</v>
+        <v>994</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -2003,14 +2006,14 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
         <v>22</v>
       </c>
       <c r="D44">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -2018,16 +2021,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
         <v>22</v>
       </c>
       <c r="D45">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
@@ -2035,14 +2038,14 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B46"/>
       <c r="C46" t="s">
         <v>22</v>
       </c>
       <c r="D46">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -2050,16 +2053,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
         <v>22</v>
       </c>
       <c r="D47">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -2067,78 +2070,78 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B48"/>
       <c r="C48" t="s">
         <v>22</v>
       </c>
       <c r="D48">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
         <v>22</v>
       </c>
       <c r="D49">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="E49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B50"/>
       <c r="C50" t="s">
         <v>22</v>
       </c>
       <c r="D50">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
         <v>22</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B52"/>
       <c r="C52" t="s">
         <v>22</v>
       </c>
       <c r="D52">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -2146,16 +2149,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
         <v>22</v>
       </c>
       <c r="D53">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -2163,46 +2166,46 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B54"/>
       <c r="C54" t="s">
         <v>22</v>
       </c>
       <c r="D54">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
       </c>
       <c r="D55">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B56"/>
       <c r="C56" t="s">
         <v>22</v>
       </c>
       <c r="D56">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
@@ -2210,16 +2213,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
         <v>22</v>
       </c>
       <c r="D57">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58"/>
       <c r="C58" t="s">
@@ -2242,10 +2245,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
@@ -2259,14 +2262,14 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60"/>
       <c r="C60" t="s">
         <v>22</v>
       </c>
       <c r="D60">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -2274,16 +2277,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>22</v>
       </c>
       <c r="D61">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
@@ -2291,7 +2294,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B62"/>
       <c r="C62" t="s">
@@ -2301,15 +2304,15 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>22</v>
@@ -2318,15 +2321,15 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
@@ -2335,62 +2338,62 @@
         <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B65"/>
       <c r="C65" t="s">
         <v>22</v>
       </c>
       <c r="D65">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
       </c>
       <c r="D66">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67"/>
       <c r="C67" t="s">
         <v>22</v>
       </c>
       <c r="D67">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
@@ -2399,56 +2402,56 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
         <v>22</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" t="s">
-        <v>92</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B70"/>
       <c r="C70" t="s">
         <v>22</v>
       </c>
       <c r="D70">
-        <v>192</v>
+        <v>1647</v>
       </c>
       <c r="E70" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>93</v>
       </c>
-      <c r="B71"/>
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
       <c r="C71" t="s">
         <v>22</v>
       </c>
       <c r="D71">
-        <v>1749</v>
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2456,45 +2459,45 @@
         <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
         <v>22</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>1644</v>
       </c>
       <c r="E72" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>93</v>
-      </c>
-      <c r="B73" t="s">
-        <v>95</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B73"/>
       <c r="C73" t="s">
         <v>22</v>
       </c>
       <c r="D73">
-        <v>1746</v>
+        <v>91</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>96</v>
       </c>
-      <c r="B74"/>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
       <c r="C74" t="s">
         <v>22</v>
       </c>
       <c r="D74">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
         <v>97</v>
@@ -2505,13 +2508,13 @@
         <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E75" t="s">
         <v>97</v>
@@ -2528,7 +2531,7 @@
         <v>22</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="E76" t="s">
         <v>97</v>
@@ -2536,65 +2539,63 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" t="s">
-        <v>96</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B77"/>
       <c r="C77" t="s">
         <v>22</v>
       </c>
       <c r="D77">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>99</v>
       </c>
-      <c r="B78"/>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
       <c r="C78" t="s">
         <v>22</v>
       </c>
       <c r="D78">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>99</v>
-      </c>
-      <c r="B79" t="s">
-        <v>61</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B79"/>
       <c r="C79" t="s">
         <v>22</v>
       </c>
       <c r="D79">
-        <v>8</v>
+        <v>484</v>
       </c>
       <c r="E79" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
       </c>
       <c r="D80">
-        <v>168</v>
+        <v>484</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
@@ -2602,14 +2603,14 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81"/>
       <c r="C81" t="s">
         <v>22</v>
       </c>
       <c r="D81">
-        <v>475</v>
+        <v>121</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -2617,16 +2618,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C82" t="s">
         <v>22</v>
       </c>
       <c r="D82">
-        <v>475</v>
+        <v>121</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -2634,14 +2635,14 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83"/>
       <c r="C83" t="s">
         <v>22</v>
       </c>
       <c r="D83">
-        <v>96</v>
+        <v>426</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
@@ -2649,31 +2650,33 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
       </c>
       <c r="D84">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>106</v>
       </c>
-      <c r="B85"/>
+      <c r="B85" t="s">
+        <v>108</v>
+      </c>
       <c r="C85" t="s">
         <v>22</v>
       </c>
       <c r="D85">
-        <v>568</v>
+        <v>425</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
@@ -2681,50 +2684,46 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>106</v>
-      </c>
-      <c r="B86" t="s">
-        <v>107</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B86"/>
       <c r="C86" t="s">
         <v>22</v>
       </c>
       <c r="D86">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="C87" t="s">
         <v>22</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="E87" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>106</v>
-      </c>
-      <c r="B88" t="s">
-        <v>109</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B88"/>
       <c r="C88" t="s">
         <v>22</v>
       </c>
       <c r="D88">
-        <v>547</v>
+        <v>48</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -2732,63 +2731,63 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89"/>
+        <v>112</v>
+      </c>
+      <c r="B89" t="s">
+        <v>113</v>
+      </c>
       <c r="C89" t="s">
         <v>22</v>
       </c>
       <c r="D89">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>110</v>
-      </c>
-      <c r="B90" t="s">
-        <v>111</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B90"/>
       <c r="C90" t="s">
         <v>22</v>
       </c>
       <c r="D90">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>112</v>
-      </c>
-      <c r="B91"/>
+        <v>114</v>
+      </c>
+      <c r="B91" t="s">
+        <v>114</v>
+      </c>
       <c r="C91" t="s">
         <v>22</v>
       </c>
       <c r="D91">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>112</v>
-      </c>
-      <c r="B92" t="s">
-        <v>113</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B92"/>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D92">
-        <v>46</v>
+        <v>529</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
@@ -2796,63 +2795,61 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>114</v>
-      </c>
-      <c r="B93"/>
+        <v>115</v>
+      </c>
+      <c r="B93" t="s">
+        <v>116</v>
+      </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D93">
-        <v>45</v>
+        <v>529</v>
       </c>
       <c r="E93" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>114</v>
-      </c>
-      <c r="B94" t="s">
-        <v>114</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B94"/>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D94">
-        <v>45</v>
+        <v>1759</v>
       </c>
       <c r="E94" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B95"/>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D95">
-        <v>500</v>
+        <v>5436</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>115</v>
-      </c>
-      <c r="B96" t="s">
-        <v>116</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B96"/>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96">
-        <v>500</v>
+        <v>179</v>
       </c>
       <c r="E96" t="s">
         <v>7</v>
@@ -2860,297 +2857,303 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>117</v>
-      </c>
-      <c r="B97"/>
+        <v>120</v>
+      </c>
+      <c r="B97" t="s">
+        <v>121</v>
+      </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>1759</v>
+        <v>179</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B98"/>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98">
-        <v>5436</v>
+        <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>120</v>
-      </c>
-      <c r="B99"/>
+        <v>122</v>
+      </c>
+      <c r="B99" t="s">
+        <v>124</v>
+      </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D99">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>120</v>
-      </c>
-      <c r="B100" t="s">
-        <v>121</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="B100"/>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="D100">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="E100" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B101"/>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="E101" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>122</v>
-      </c>
-      <c r="B102" t="s">
-        <v>124</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B102"/>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B103"/>
       <c r="C103" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="D103">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B104"/>
       <c r="C104" t="s">
         <v>15</v>
       </c>
       <c r="D104">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E104" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B105"/>
       <c r="C105" t="s">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>263</v>
       </c>
       <c r="E105" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>131</v>
-      </c>
-      <c r="B106"/>
+        <v>134</v>
+      </c>
+      <c r="B106" t="s">
+        <v>135</v>
+      </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D106">
-        <v>104</v>
+        <v>263</v>
       </c>
       <c r="E106" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B107"/>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D107">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>134</v>
-      </c>
-      <c r="B108"/>
+        <v>136</v>
+      </c>
+      <c r="B108" t="s">
+        <v>138</v>
+      </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="D108">
-        <v>287</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>134</v>
-      </c>
-      <c r="B109" t="s">
-        <v>135</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B109"/>
       <c r="C109" t="s">
         <v>6</v>
       </c>
       <c r="D109">
-        <v>287</v>
+        <v>46</v>
       </c>
       <c r="E109" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>136</v>
-      </c>
-      <c r="B110"/>
+        <v>139</v>
+      </c>
+      <c r="B110" t="s">
+        <v>140</v>
+      </c>
       <c r="C110" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="E110" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>136</v>
-      </c>
-      <c r="B111" t="s">
-        <v>137</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B111"/>
       <c r="C111" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="E111" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B112"/>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D112">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B113" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D113">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>141</v>
-      </c>
-      <c r="B114"/>
+        <v>143</v>
+      </c>
+      <c r="B114" t="s">
+        <v>146</v>
+      </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D114">
-        <v>274</v>
+        <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>143</v>
       </c>
-      <c r="B115"/>
+      <c r="B115" t="s">
+        <v>147</v>
+      </c>
       <c r="C115" t="s">
         <v>22</v>
       </c>
       <c r="D115">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3158,16 +3161,16 @@
         <v>143</v>
       </c>
       <c r="B116" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C116" t="s">
         <v>22</v>
       </c>
       <c r="D116">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3175,13 +3178,13 @@
         <v>143</v>
       </c>
       <c r="B117" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C117" t="s">
         <v>22</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E117" t="s">
         <v>7</v>
@@ -3192,16 +3195,16 @@
         <v>143</v>
       </c>
       <c r="B118" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C118" t="s">
         <v>22</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E118" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3209,13 +3212,13 @@
         <v>143</v>
       </c>
       <c r="B119" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C119" t="s">
         <v>22</v>
       </c>
       <c r="D119">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
@@ -3226,16 +3229,16 @@
         <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C120" t="s">
         <v>22</v>
       </c>
       <c r="D120">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3243,16 +3246,16 @@
         <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C121" t="s">
         <v>22</v>
       </c>
       <c r="D121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3260,16 +3263,16 @@
         <v>143</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C122" t="s">
         <v>22</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E122" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3277,13 +3280,13 @@
         <v>143</v>
       </c>
       <c r="B123" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C123" t="s">
         <v>22</v>
       </c>
       <c r="D123">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -3294,13 +3297,13 @@
         <v>143</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C124" t="s">
         <v>22</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
@@ -3311,7 +3314,7 @@
         <v>143</v>
       </c>
       <c r="B125" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C125" t="s">
         <v>22</v>
@@ -3320,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3328,16 +3331,16 @@
         <v>143</v>
       </c>
       <c r="B126" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C126" t="s">
         <v>22</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3345,16 +3348,16 @@
         <v>143</v>
       </c>
       <c r="B127" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C127" t="s">
         <v>22</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E127" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3362,7 +3365,7 @@
         <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C128" t="s">
         <v>22</v>
@@ -3371,7 +3374,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3379,13 +3382,13 @@
         <v>143</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C129" t="s">
         <v>22</v>
       </c>
       <c r="D129">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
@@ -3396,16 +3399,16 @@
         <v>143</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C130" t="s">
         <v>22</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E130" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3413,16 +3416,16 @@
         <v>143</v>
       </c>
       <c r="B131" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C131" t="s">
         <v>22</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3430,16 +3433,16 @@
         <v>143</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C132" t="s">
         <v>22</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3447,16 +3450,16 @@
         <v>143</v>
       </c>
       <c r="B133" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C133" t="s">
         <v>22</v>
       </c>
       <c r="D133">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3464,16 +3467,16 @@
         <v>143</v>
       </c>
       <c r="B134" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C134" t="s">
         <v>22</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E134" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3487,10 +3490,10 @@
         <v>22</v>
       </c>
       <c r="D135">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3498,16 +3501,16 @@
         <v>143</v>
       </c>
       <c r="B136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C136" t="s">
         <v>22</v>
       </c>
       <c r="D136">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E136" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3515,7 +3518,7 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C137" t="s">
         <v>22</v>
@@ -3524,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>171</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3532,16 +3535,16 @@
         <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C138" t="s">
         <v>22</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E138" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3549,7 +3552,7 @@
         <v>143</v>
       </c>
       <c r="B139" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C139" t="s">
         <v>22</v>
@@ -3558,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3566,7 +3569,7 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C140" t="s">
         <v>22</v>
@@ -3575,7 +3578,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>175</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3583,7 +3586,7 @@
         <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C141" t="s">
         <v>22</v>
@@ -3592,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3600,16 +3603,16 @@
         <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C142" t="s">
         <v>22</v>
       </c>
       <c r="D142">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3617,16 +3620,16 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C143" t="s">
         <v>22</v>
       </c>
       <c r="D143">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E143" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3634,16 +3637,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C144" t="s">
         <v>22</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>181</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3651,7 +3654,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C145" t="s">
         <v>22</v>
@@ -3660,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3668,7 +3671,7 @@
         <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C146" t="s">
         <v>22</v>
@@ -3677,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3685,16 +3688,16 @@
         <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C147" t="s">
         <v>22</v>
       </c>
       <c r="D147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E147" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3702,7 +3705,7 @@
         <v>143</v>
       </c>
       <c r="B148" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C148" t="s">
         <v>22</v>
@@ -3711,7 +3714,7 @@
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3719,16 +3722,16 @@
         <v>143</v>
       </c>
       <c r="B149" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C149" t="s">
         <v>22</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>175</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3736,7 +3739,7 @@
         <v>143</v>
       </c>
       <c r="B150" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C150" t="s">
         <v>22</v>
@@ -3745,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3753,7 +3756,7 @@
         <v>143</v>
       </c>
       <c r="B151" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C151" t="s">
         <v>22</v>
@@ -3762,7 +3765,7 @@
         <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3770,7 +3773,7 @@
         <v>143</v>
       </c>
       <c r="B152" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C152" t="s">
         <v>22</v>
@@ -3779,7 +3782,7 @@
         <v>13</v>
       </c>
       <c r="E152" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3787,7 +3790,7 @@
         <v>143</v>
       </c>
       <c r="B153" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C153" t="s">
         <v>22</v>
@@ -3796,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="s">
-        <v>148</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3804,16 +3807,16 @@
         <v>143</v>
       </c>
       <c r="B154" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C154" t="s">
         <v>22</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>175</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3821,21 +3824,21 @@
         <v>143</v>
       </c>
       <c r="B155" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C155" t="s">
         <v>22</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="E155" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B156"/>
       <c r="C156" t="s">
@@ -3850,14 +3853,14 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B157"/>
       <c r="C157" t="s">
         <v>6</v>
       </c>
       <c r="D157">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="E157" t="s">
         <v>7</v>
@@ -3865,16 +3868,16 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B158" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
       </c>
       <c r="D158">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="E158" t="s">
         <v>7</v>
@@ -3882,7 +3885,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B159"/>
       <c r="C159" t="s">
@@ -3892,15 +3895,15 @@
         <v>26</v>
       </c>
       <c r="E159" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B160" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C160" t="s">
         <v>22</v>
@@ -3909,37 +3912,37 @@
         <v>26</v>
       </c>
       <c r="E160" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B161"/>
       <c r="C161" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D161">
-        <v>727</v>
+        <v>762</v>
       </c>
       <c r="E161" t="s">
-        <v>145</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B162"/>
       <c r="C162" t="s">
+        <v>202</v>
+      </c>
+      <c r="D162">
+        <v>9479</v>
+      </c>
+      <c r="E162" t="s">
         <v>203</v>
-      </c>
-      <c r="D162">
-        <v>7907</v>
-      </c>
-      <c r="E162" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3951,10 +3954,10 @@
         <v>126</v>
       </c>
       <c r="D163">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E163" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3966,10 +3969,10 @@
         <v>206</v>
       </c>
       <c r="D164">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="E164" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3981,10 +3984,10 @@
         <v>208</v>
       </c>
       <c r="D165">
-        <v>607</v>
+        <v>823</v>
       </c>
       <c r="E165" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3996,10 +3999,10 @@
         <v>9</v>
       </c>
       <c r="D166">
-        <v>2142</v>
+        <v>2205</v>
       </c>
       <c r="E166" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4011,10 +4014,10 @@
         <v>211</v>
       </c>
       <c r="D167">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E167" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4026,15 +4029,15 @@
         <v>15</v>
       </c>
       <c r="D168">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E168" t="s">
-        <v>213</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B169"/>
       <c r="C169" t="s">
@@ -4049,7 +4052,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B170"/>
       <c r="C170" t="s">
@@ -4059,12 +4062,12 @@
         <v>1</v>
       </c>
       <c r="E170" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B171"/>
       <c r="C171" t="s">
@@ -4079,7 +4082,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B172"/>
       <c r="C172" t="s">
@@ -4094,29 +4097,29 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B173"/>
       <c r="C173" t="s">
         <v>9</v>
       </c>
       <c r="D173">
-        <v>2675</v>
+        <v>6211</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B174"/>
       <c r="C174" t="s">
         <v>9</v>
       </c>
       <c r="D174">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="E174" t="s">
         <v>7</v>
@@ -4124,16 +4127,16 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
+        <v>219</v>
+      </c>
+      <c r="B175" t="s">
         <v>220</v>
       </c>
-      <c r="B175" t="s">
-        <v>221</v>
-      </c>
       <c r="C175" t="s">
         <v>9</v>
       </c>
       <c r="D175">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="E175" t="s">
         <v>7</v>
@@ -4141,39 +4144,39 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B176"/>
       <c r="C176" t="s">
         <v>9</v>
       </c>
       <c r="D176">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="E176" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
+        <v>221</v>
+      </c>
+      <c r="B177" t="s">
         <v>222</v>
       </c>
-      <c r="B177" t="s">
-        <v>224</v>
-      </c>
       <c r="C177" t="s">
         <v>9</v>
       </c>
       <c r="D177">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="E177" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B178"/>
       <c r="C178" t="s">
@@ -4188,10 +4191,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B179" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
@@ -4205,46 +4208,46 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B180"/>
       <c r="C180" t="s">
         <v>9</v>
       </c>
       <c r="D180">
-        <v>731</v>
+        <v>563</v>
       </c>
       <c r="E180" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B181" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C181" t="s">
         <v>9</v>
       </c>
       <c r="D181">
-        <v>731</v>
+        <v>563</v>
       </c>
       <c r="E181" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B182"/>
       <c r="C182" t="s">
         <v>9</v>
       </c>
       <c r="D182">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="E182" t="s">
         <v>7</v>
@@ -4252,16 +4255,16 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B183" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C183" t="s">
         <v>9</v>
       </c>
       <c r="D183">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="E183" t="s">
         <v>7</v>
@@ -4269,29 +4272,29 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B184"/>
       <c r="C184" t="s">
         <v>9</v>
       </c>
       <c r="D184">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E184" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B185"/>
       <c r="C185" t="s">
         <v>9</v>
       </c>
       <c r="D185">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E185" t="s">
         <v>7</v>
@@ -4299,16 +4302,16 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B186" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
       </c>
       <c r="D186">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E186" t="s">
         <v>7</v>
@@ -4316,14 +4319,14 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B187"/>
       <c r="C187" t="s">
         <v>9</v>
       </c>
       <c r="D187">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E187" t="s">
         <v>7</v>
@@ -4331,16 +4334,16 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B188" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C188" t="s">
         <v>9</v>
       </c>
       <c r="D188">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="E188" t="s">
         <v>7</v>
@@ -4348,16 +4351,16 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B189" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C189" t="s">
         <v>9</v>
       </c>
       <c r="D189">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E189" t="s">
         <v>7</v>
@@ -4365,7 +4368,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B190"/>
       <c r="C190" t="s">
@@ -4380,14 +4383,14 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B191"/>
       <c r="C191" t="s">
         <v>9</v>
       </c>
       <c r="D191">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E191" t="s">
         <v>7</v>
@@ -4395,10 +4398,10 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B192" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C192" t="s">
         <v>9</v>
@@ -4407,15 +4410,15 @@
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B193" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C193" t="s">
         <v>9</v>
@@ -4424,15 +4427,15 @@
         <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B194" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C194" t="s">
         <v>9</v>
@@ -4441,15 +4444,15 @@
         <v>14</v>
       </c>
       <c r="E194" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B195" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C195" t="s">
         <v>9</v>
@@ -4458,117 +4461,117 @@
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B196" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C196" t="s">
         <v>9</v>
       </c>
       <c r="D196">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E196" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B197" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C197" t="s">
         <v>9</v>
       </c>
       <c r="D197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>246</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B198" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C198" t="s">
         <v>9</v>
       </c>
       <c r="D198">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B199" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C199" t="s">
         <v>9</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E199" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B200" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C200" t="s">
         <v>9</v>
       </c>
       <c r="D200">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="E200" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B201" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C201" t="s">
         <v>9</v>
       </c>
       <c r="D201">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="E201" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B202" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C202" t="s">
         <v>9</v>
@@ -4577,217 +4580,217 @@
         <v>4</v>
       </c>
       <c r="E202" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
+        <v>236</v>
+      </c>
+      <c r="B203" t="s">
+        <v>250</v>
+      </c>
+      <c r="C203" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203">
+        <v>4</v>
+      </c>
+      <c r="E203" t="s">
         <v>238</v>
-      </c>
-      <c r="B203" t="s">
-        <v>254</v>
-      </c>
-      <c r="C203" t="s">
-        <v>9</v>
-      </c>
-      <c r="D203">
-        <v>1</v>
-      </c>
-      <c r="E203" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B204" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C204" t="s">
         <v>9</v>
       </c>
       <c r="D204">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B205" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="E205" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
+        <v>236</v>
+      </c>
+      <c r="B206" t="s">
+        <v>253</v>
+      </c>
+      <c r="C206" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206" t="s">
         <v>238</v>
-      </c>
-      <c r="B206" t="s">
-        <v>257</v>
-      </c>
-      <c r="C206" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206">
-        <v>2</v>
-      </c>
-      <c r="E206" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B207" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E207" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B208" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C208" t="s">
         <v>9</v>
       </c>
       <c r="D208">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E208" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B209" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C209" t="s">
         <v>9</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E209" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>261</v>
-      </c>
-      <c r="B210"/>
+        <v>236</v>
+      </c>
+      <c r="B210" t="s">
+        <v>257</v>
+      </c>
       <c r="C210" t="s">
         <v>9</v>
       </c>
       <c r="D210">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="E210" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>261</v>
-      </c>
-      <c r="B211" t="s">
-        <v>263</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B211"/>
       <c r="C211" t="s">
         <v>9</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="E211" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B212" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C212" t="s">
         <v>9</v>
       </c>
       <c r="D212">
-        <v>135</v>
+        <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
+        <v>258</v>
+      </c>
+      <c r="B213" t="s">
         <v>261</v>
       </c>
-      <c r="B213" t="s">
-        <v>265</v>
-      </c>
       <c r="C213" t="s">
         <v>9</v>
       </c>
       <c r="D213">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="E213" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B214" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C214" t="s">
         <v>9</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="E214" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B215" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C215" t="s">
         <v>9</v>
@@ -4796,49 +4799,49 @@
         <v>2</v>
       </c>
       <c r="E215" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B216" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C216" t="s">
         <v>9</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E216" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B217" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C217" t="s">
         <v>9</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E217" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B218" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C218" t="s">
         <v>9</v>
@@ -4847,49 +4850,49 @@
         <v>1</v>
       </c>
       <c r="E218" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B219" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C219" t="s">
         <v>9</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B220" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C220" t="s">
         <v>9</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E220" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B221" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C221" t="s">
         <v>9</v>
@@ -4898,245 +4901,245 @@
         <v>1</v>
       </c>
       <c r="E221" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B222" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C222" t="s">
         <v>9</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E222" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B223" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C223" t="s">
         <v>9</v>
       </c>
       <c r="D223">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="E223" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>277</v>
-      </c>
-      <c r="B224"/>
+        <v>258</v>
+      </c>
+      <c r="B224" t="s">
+        <v>272</v>
+      </c>
       <c r="C224" t="s">
         <v>9</v>
       </c>
       <c r="D224">
-        <v>535</v>
+        <v>55</v>
       </c>
       <c r="E224" t="s">
-        <v>69</v>
+        <v>273</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>277</v>
-      </c>
-      <c r="B225" t="s">
-        <v>278</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B225"/>
       <c r="C225" t="s">
         <v>9</v>
       </c>
       <c r="D225">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="E225" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>279</v>
-      </c>
-      <c r="B226"/>
+        <v>274</v>
+      </c>
+      <c r="B226" t="s">
+        <v>275</v>
+      </c>
       <c r="C226" t="s">
         <v>9</v>
       </c>
       <c r="D226">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="E226" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>279</v>
-      </c>
-      <c r="B227" t="s">
-        <v>280</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B227"/>
       <c r="C227" t="s">
         <v>9</v>
       </c>
       <c r="D227">
-        <v>40</v>
+        <v>542</v>
       </c>
       <c r="E227" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B228" t="s">
-        <v>281</v>
+        <v>63</v>
       </c>
       <c r="C228" t="s">
         <v>9</v>
       </c>
       <c r="D228">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B229" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C229" t="s">
         <v>9</v>
       </c>
       <c r="D229">
-        <v>8</v>
+        <v>541</v>
       </c>
       <c r="E229" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>279</v>
       </c>
-      <c r="B230" t="s">
-        <v>283</v>
-      </c>
+      <c r="B230"/>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="D230">
-        <v>468</v>
+        <v>1</v>
       </c>
       <c r="E230" t="s">
-        <v>7</v>
+        <v>280</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B231"/>
       <c r="C231" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E231" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>286</v>
-      </c>
-      <c r="B232"/>
+        <v>281</v>
+      </c>
+      <c r="B232" t="s">
+        <v>282</v>
+      </c>
       <c r="C232" t="s">
         <v>22</v>
       </c>
       <c r="D232">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E232" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B233" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C233" t="s">
         <v>22</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E233" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B234" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C234" t="s">
         <v>22</v>
       </c>
       <c r="D234">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E234" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
+        <v>281</v>
+      </c>
+      <c r="B235" t="s">
         <v>286</v>
       </c>
-      <c r="B235" t="s">
-        <v>290</v>
-      </c>
       <c r="C235" t="s">
         <v>22</v>
       </c>
       <c r="D235">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E235" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B236" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C236" t="s">
         <v>22</v>
@@ -5145,96 +5148,100 @@
         <v>1</v>
       </c>
       <c r="E236" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>286</v>
-      </c>
-      <c r="B237" t="s">
-        <v>292</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B237"/>
       <c r="C237" t="s">
         <v>22</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E237" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>293</v>
-      </c>
-      <c r="B238"/>
+        <v>288</v>
+      </c>
+      <c r="B238" t="s">
+        <v>289</v>
+      </c>
       <c r="C238" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="D238">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="E238" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>295</v>
-      </c>
-      <c r="B239"/>
+        <v>288</v>
+      </c>
+      <c r="B239" t="s">
+        <v>291</v>
+      </c>
       <c r="C239" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D239">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>296</v>
-      </c>
-      <c r="B240"/>
+        <v>288</v>
+      </c>
+      <c r="B240" t="s">
+        <v>292</v>
+      </c>
       <c r="C240" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E240" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B241"/>
       <c r="C241" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="D241">
-        <v>367</v>
+        <v>135</v>
       </c>
       <c r="E241" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B242"/>
       <c r="C242" t="s">
         <v>15</v>
       </c>
       <c r="D242">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E242" t="s">
         <v>16</v>
@@ -5242,123 +5249,121 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B243"/>
       <c r="C243" t="s">
         <v>15</v>
       </c>
       <c r="D243">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E243" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B244"/>
       <c r="C244" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D244">
-        <v>726</v>
+        <v>205</v>
       </c>
       <c r="E244" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>301</v>
-      </c>
-      <c r="B245" t="s">
-        <v>302</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="B245"/>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D245">
-        <v>726</v>
+        <v>63</v>
       </c>
       <c r="E245" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B246"/>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D246">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E246" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B247"/>
       <c r="C247" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D247">
-        <v>11</v>
+        <v>988</v>
       </c>
       <c r="E247" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>305</v>
-      </c>
-      <c r="B248"/>
+        <v>302</v>
+      </c>
+      <c r="B248" t="s">
+        <v>303</v>
+      </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D248">
-        <v>283</v>
+        <v>988</v>
       </c>
       <c r="E248" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>305</v>
-      </c>
-      <c r="B249" t="s">
-        <v>305</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B249"/>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D249">
-        <v>283</v>
+        <v>2</v>
       </c>
       <c r="E249" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B250"/>
       <c r="C250" t="s">
         <v>15</v>
       </c>
       <c r="D250">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="E250" t="s">
         <v>16</v>
@@ -5366,17 +5371,64 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B251"/>
       <c r="C251" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251">
+        <v>321</v>
+      </c>
+      <c r="E251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>306</v>
+      </c>
+      <c r="B252" t="s">
+        <v>306</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252">
+        <v>321</v>
+      </c>
+      <c r="E252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>307</v>
+      </c>
+      <c r="B253"/>
+      <c r="C253" t="s">
+        <v>15</v>
+      </c>
+      <c r="D253">
+        <v>59</v>
+      </c>
+      <c r="E253" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>308</v>
+      </c>
+      <c r="B254"/>
+      <c r="C254" t="s">
         <v>126</v>
       </c>
-      <c r="D251">
+      <c r="D254">
         <v>1</v>
       </c>
-      <c r="E251" t="s">
-        <v>308</v>
+      <c r="E254" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
